--- a/01-practice/02-good-data.xlsx
+++ b/01-practice/02-good-data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ydb/Work/fnkc-r/01-practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECFC3FB-8B96-014F-83A9-20AF97417C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19446D37-4BEF-404C-83D7-A276C14C1F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{CBFE358D-0AB1-C141-9E0F-60BD90187847}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$4</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,31 +41,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>x3</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>d1</t>
-  </si>
-  <si>
-    <t>d2</t>
-  </si>
-  <si>
     <t>ЧО</t>
   </si>
   <si>
     <t>ПО</t>
   </si>
   <si>
-    <t>z</t>
+    <t>num1</t>
+  </si>
+  <si>
+    <t>num2</t>
+  </si>
+  <si>
+    <t>num3</t>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>res_type</t>
+  </si>
+  <si>
+    <t>dt1</t>
+  </si>
+  <si>
+    <t>dt2</t>
   </si>
 </sst>
 </file>
@@ -93,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -101,15 +104,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -120,6 +188,21 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,33 +539,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9F0123-C6FA-A44A-858C-698C8DCC22F7}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.83203125" style="5"/>
+    <col min="5" max="5" width="10.83203125" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:7" s="11" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -492,19 +577,19 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0.08</v>
       </c>
-      <c r="D2" t="b">
+      <c r="D2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
         <v>45765</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>45765</v>
       </c>
     </row>
@@ -515,19 +600,19 @@
       <c r="B3">
         <v>1.23</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1.23</v>
       </c>
-      <c r="D3" t="b">
+      <c r="D3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
         <v>45766</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>45766</v>
       </c>
     </row>
@@ -538,23 +623,24 @@
       <c r="B4">
         <v>4.5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>4.5</v>
       </c>
-      <c r="D4" t="b">
+      <c r="D4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
         <v>45767</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>45778</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G4" xr:uid="{FE9F0123-C6FA-A44A-858C-698C8DCC22F7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/01-practice/02-good-data.xlsx
+++ b/01-practice/02-good-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ydb/Work/fnkc-r/01-practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19446D37-4BEF-404C-83D7-A276C14C1F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C092ADF-584E-7542-9CD7-AAE8BEC6FD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{CBFE358D-0AB1-C141-9E0F-60BD90187847}"/>
   </bookViews>
@@ -539,7 +539,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9F0123-C6FA-A44A-858C-698C8DCC22F7}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -620,9 +622,6 @@
       <c r="A4">
         <v>4.5</v>
       </c>
-      <c r="B4">
-        <v>4.5</v>
-      </c>
       <c r="C4" s="3">
         <v>4.5</v>
       </c>
